--- a/all_sources_in.xlsx
+++ b/all_sources_in.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/bq21582_bristol_ac_uk/Documents/Programs/web app/web-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{9FD598C9-D429-4C72-8D2A-6AF206582862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD276C4F-A982-493D-B762-081A2F3FB711}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{9FD598C9-D429-4C72-8D2A-6AF206582862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D4CB717-B7E1-4C8A-B511-7F6DEB2B04F1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mental_health_catalogue" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="234">
   <si>
     <t>MH_study_id</t>
   </si>
@@ -972,6 +972,63 @@
   </si>
   <si>
     <t>BCS70</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>LPS</t>
+  </si>
+  <si>
+    <t>nhsd</t>
+  </si>
+  <si>
+    <t>Source name</t>
+  </si>
+  <si>
+    <t>NHS Digital</t>
+  </si>
+  <si>
+    <t>Placeholder for NHSD Aims</t>
+  </si>
+  <si>
+    <t>Home - NHS England Digital</t>
+  </si>
+  <si>
+    <t>Placeholder for NHSD themes</t>
+  </si>
+  <si>
+    <t>NHS</t>
+  </si>
+  <si>
+    <t>Linked</t>
+  </si>
+  <si>
+    <t>Consent?</t>
+  </si>
+  <si>
+    <t>varied</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>Geographic/environmental/?</t>
+  </si>
+  <si>
+    <t>Placeholder for GEO Aims</t>
+  </si>
+  <si>
+    <t>Placeholder for GEO themes</t>
+  </si>
+  <si>
+    <t>University of Leicester?</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1532,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1486,6 +1543,7 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1852,9 +1910,9 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1895,7 +1953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1939,7 +1997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1983,7 +2041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>7</v>
       </c>
@@ -2027,7 +2085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>8</v>
       </c>
@@ -2071,7 +2129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>16</v>
       </c>
@@ -2115,7 +2173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>22</v>
       </c>
@@ -2159,7 +2217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>32</v>
       </c>
@@ -2203,7 +2261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>33</v>
       </c>
@@ -2247,7 +2305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>37</v>
       </c>
@@ -2291,7 +2349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>38</v>
       </c>
@@ -2335,7 +2393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>43</v>
       </c>
@@ -2379,7 +2437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>47</v>
       </c>
@@ -2423,7 +2481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>49</v>
       </c>
@@ -2474,35 +2532,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="4" max="4" width="31.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.53515625" customWidth="1"/>
+    <col min="2" max="2" width="17.23046875" customWidth="1"/>
+    <col min="3" max="3" width="31.69140625" customWidth="1"/>
+    <col min="4" max="4" width="31.84375" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="31.7265625" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
-    <col min="10" max="10" width="29.54296875" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" customWidth="1"/>
-    <col min="13" max="13" width="27.1796875" customWidth="1"/>
-    <col min="14" max="14" width="18.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.4609375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="31.69140625" customWidth="1"/>
+    <col min="8" max="8" width="19.4609375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="26.4609375" customWidth="1"/>
+    <col min="10" max="10" width="29.53515625" customWidth="1"/>
+    <col min="11" max="11" width="18.4609375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="13.15234375" customWidth="1"/>
+    <col min="13" max="13" width="27.15234375" customWidth="1"/>
+    <col min="14" max="14" width="18.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -2543,8 +2602,11 @@
       <c r="O1" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="P1" s="4" t="s">
+        <v>215</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -2590,8 +2652,11 @@
       <c r="O2" t="s">
         <v>23</v>
       </c>
+      <c r="P2" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>141</v>
       </c>
@@ -2637,8 +2702,11 @@
       <c r="O3" t="s">
         <v>23</v>
       </c>
+      <c r="P3" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -2684,8 +2752,11 @@
       <c r="O4" t="s">
         <v>23</v>
       </c>
+      <c r="P4" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -2731,8 +2802,11 @@
       <c r="O5" t="s">
         <v>23</v>
       </c>
+      <c r="P5" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -2778,8 +2852,11 @@
       <c r="O6" t="s">
         <v>23</v>
       </c>
+      <c r="P6" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -2825,8 +2902,11 @@
       <c r="O7" t="s">
         <v>23</v>
       </c>
+      <c r="P7" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>159</v>
       </c>
@@ -2872,8 +2952,11 @@
       <c r="O8" t="s">
         <v>23</v>
       </c>
+      <c r="P8" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>160</v>
       </c>
@@ -2919,8 +3002,11 @@
       <c r="O9" t="s">
         <v>23</v>
       </c>
+      <c r="P9" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2966,8 +3052,11 @@
       <c r="O10" t="s">
         <v>23</v>
       </c>
+      <c r="P10" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -3013,8 +3102,11 @@
       <c r="O11" t="s">
         <v>23</v>
       </c>
+      <c r="P11" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>214</v>
       </c>
@@ -3060,8 +3152,11 @@
       <c r="O12" t="s">
         <v>23</v>
       </c>
+      <c r="P12" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -3107,8 +3202,11 @@
       <c r="O13" t="s">
         <v>23</v>
       </c>
+      <c r="P13" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -3154,8 +3252,11 @@
       <c r="O14" t="s">
         <v>23</v>
       </c>
+      <c r="P14" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -3201,8 +3302,11 @@
       <c r="O15" t="s">
         <v>23</v>
       </c>
+      <c r="P15" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>210</v>
       </c>
@@ -3248,8 +3352,11 @@
       <c r="O16" t="s">
         <v>23</v>
       </c>
+      <c r="P16" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -3295,8 +3402,11 @@
       <c r="O17" t="s">
         <v>23</v>
       </c>
+      <c r="P17" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>211</v>
       </c>
@@ -3342,8 +3452,11 @@
       <c r="O18" t="s">
         <v>23</v>
       </c>
+      <c r="P18" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -3389,8 +3502,11 @@
       <c r="O19" t="s">
         <v>23</v>
       </c>
+      <c r="P19" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -3436,8 +3552,11 @@
       <c r="O20" t="s">
         <v>23</v>
       </c>
+      <c r="P20" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -3483,8 +3602,11 @@
       <c r="O21" t="s">
         <v>23</v>
       </c>
+      <c r="P21" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="22" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -3530,8 +3652,11 @@
       <c r="O22" t="s">
         <v>23</v>
       </c>
+      <c r="P22" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>212</v>
       </c>
@@ -3576,6 +3701,109 @@
       </c>
       <c r="O23" s="7" t="s">
         <v>23</v>
+      </c>
+      <c r="P23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" t="s">
+        <v>222</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" t="s">
+        <v>224</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" t="s">
+        <v>224</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3588,21 +3816,13 @@
     <hyperlink ref="D7" r:id="rId6" xr:uid="{71A28AE9-574C-4ABB-B951-E0F7F4AC0ED6}"/>
     <hyperlink ref="D8" r:id="rId7" xr:uid="{1B2CAC6C-3CDE-4CEB-A705-C3DA703EA9D6}"/>
     <hyperlink ref="D9" r:id="rId8" xr:uid="{AE0AAC68-B2D2-4FEF-B2D5-3D6D83B4C83A}"/>
+    <hyperlink ref="D24" r:id="rId9" display="https://digital.nhs.uk/" xr:uid="{92CC56BB-A702-4707-BD1C-C3F2395D08B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100362CCE852358CD488E8AC7D76A88A7B9" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0a969f11f333e55a635863768f56c1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cdd28b36-9559-4f02-b334-18686e08c090" xmlns:ns3="96b41f5b-68c8-47b0-939c-7829c37ecb01" xmlns:ns4="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8b960cfa97ac6e5019242c462d73d63" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cdd28b36-9559-4f02-b334-18686e08c090"/>
@@ -3862,7 +4082,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="cdd28b36-9559-4f02-b334-18686e08c090">
@@ -3873,15 +4093,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45797889-F5A0-4AF5-A147-F88B0C0918CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9154D1-3B7D-4F8C-A641-01D021E6A9E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3901,7 +4122,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEC23EF3-29A0-4EB4-BA76-DBAF1AD18AE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="96b41f5b-68c8-47b0-939c-7829c37ecb01"/>
@@ -3917,4 +4138,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45797889-F5A0-4AF5-A147-F88B0C0918CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/all_sources_in.xlsx
+++ b/all_sources_in.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/bq21582_bristol_ac_uk/Documents/Programs/web app/web-app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob.sharepoint.com/teams/grp-AndyRobinJazz/Shared Documents/Data Access/Data Team/Data Documentation/EXPLORE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{9FD598C9-D429-4C72-8D2A-6AF206582862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D4CB717-B7E1-4C8A-B511-7F6DEB2B04F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE6D10B-1DD5-4410-AE42-B7FB7314988F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mental_health_catalogue" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="247">
   <si>
     <t>MH_study_id</t>
   </si>
@@ -700,19 +700,40 @@
     <t>Varied</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>source name</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Study type</t>
+  </si>
+  <si>
     <t>Participant pathway</t>
   </si>
   <si>
+    <t>Year of birth</t>
+  </si>
+  <si>
     <t>Sex</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>EPICN</t>
   </si>
   <si>
+    <t>European Prospective Investigation into Cancer and Nutrition - Norfolk (EPIC-N)</t>
+  </si>
+  <si>
     <t xml:space="preserve">EPIC-Norfolk is part of the European Prospective Investigation into Cancer and Nutrition (EPIC), a large-scale project that studies populations across Europe to investigate the relationships between diet, nutrition, lifestyle and environmental factors, and the incidence of cancer and other chronic diseases. </t>
   </si>
   <si>
-    <t>https://www.epic-norfolk.org.uk/</t>
+    <t>[epic-norfolk](https://www.epic-norfolk.org.uk/)</t>
   </si>
   <si>
     <t>Covid-19 data collection, Biomarkers, Cognitive measures, Diet and nutrition, Education, Ethnicity and race, Sexuality and gender identity, Housing, Socioeconomic status and deprivation, Language and literacy, Loneliness and social isolation, Neighbourhood, Physical health assessment, Political and social attitudes, Victimisation and life events, Work and employment, Parenting and family, Sleep problems</t>
@@ -733,10 +754,19 @@
     <t>40-79 years</t>
   </si>
   <si>
+    <t>LPS</t>
+  </si>
+  <si>
     <t>EXCEED</t>
   </si>
   <si>
-    <t>https://exceed.org.uk/about/</t>
+    <t>Extended Cohort for E-health, Environment and DNA (EXCEED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Extended Cohort for E-health, Environment and DNA (EXCEED) study collects information from people about genes and lifestyle to provide insight into environmental influences on a broad range of diseases and long-term health. </t>
+  </si>
+  <si>
+    <t>[exceed.org.uk](https://exceed.org.uk/about/)</t>
   </si>
   <si>
     <t xml:space="preserve">Covid-19 data collection, Biomarkers, Education, Ethnicity and race,  Socioeconomic status and deprivation, Physical health assessment </t>
@@ -748,13 +778,22 @@
     <t>Consent</t>
   </si>
   <si>
+    <t>Leicestershire &amp; Rutland</t>
+  </si>
+  <si>
+    <t>18+ years</t>
+  </si>
+  <si>
     <t>FENLAND</t>
   </si>
   <si>
     <t>Fenland Study</t>
   </si>
   <si>
-    <t>https://www.mrc-epid.cam.ac.uk/research/studies/fenland/</t>
+    <t xml:space="preserve">The Fenland Study investigates the interaction between environmental and genetic factors in determining obesity, type 2 diabetes and related metabolic disorders. </t>
+  </si>
+  <si>
+    <t>[mrc-epid.cam.ac.uk](https://www.mrc-epid.cam.ac.uk/research/studies/fenland/)</t>
   </si>
   <si>
     <t>Covid-19 data collection, Biomarkers, Diet and nutrition, Education, Ethnicity and race,  Housing, Socioeconomic status and deprivation, Loneliness and social isolation, Physical health assessment, Work and employment, Sleep problems</t>
@@ -769,7 +808,13 @@
     <t>GLAD</t>
   </si>
   <si>
-    <t>https://gladstudy.org.uk/</t>
+    <t>Genetic Links to Anxiety and Depression (GLAD) Study</t>
+  </si>
+  <si>
+    <t>The Genetic Links to Anxiety and Depression (GLAD) study is part of the National Institute for Health and Care Research (NIHR) Mental Health BioResource. GLAD explores genetic risk factors for depression and/or anxiety. The GLAD study aims to better understand depression and anxiety in order to find effective treatments and improve the lives of people experiencing these disorders.</t>
+  </si>
+  <si>
+    <t>[gladstudy.org.uk](https://gladstudy.org.uk/)</t>
   </si>
   <si>
     <t>Covid-19 data collection, Biomarkers, Education, Sexuality and gender identity, Socioeconomic status and deprivation, Loneliness and social isolation, Digital technology and social media, Victimisation and life events, Work and employment, Parenting and family, Sleep problems</t>
@@ -778,28 +823,174 @@
     <t>King's College London</t>
   </si>
   <si>
+    <t>16+ years</t>
+  </si>
+  <si>
     <t>NIHRBIO_COPING</t>
   </si>
   <si>
-    <t>https://www.maudsleybrc.nihr.ac.uk/posts/2020/may/covid-19-psychiatry-and-neurological-genetics-coping-study/</t>
+    <t>National Institute for Health and Care Research (NIHR) Mental Health BioResource COVID-19 Psychiatry and Neurological Genetics (COPING) Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The National Institute for Health and Care Research (NIHR) Mental Health BioResource COVID-19 Psychiatry and Neurological Genetics (COPING) study aims to assess the impact of the COVID-19 pandemic on mental and neurological health. </t>
+  </si>
+  <si>
+    <t>[www.maudsleybrc.nihr.ac.uk](https://www.maudsleybrc.nihr.ac.uk/posts/2020/may/covid-19-psychiatry-and-neurological-genetics-coping-study/)</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection, Education, Ethnicity and race, Sexuality and gender identity, Socioeconomic status and deprivation, Loneliness and social isolation, Victimisation and life events, Work and employment, Parenting and family, Sleep problems</t>
+  </si>
+  <si>
+    <t>Cambridge University Hospitals NHS Foundation Trust</t>
   </si>
   <si>
     <t>NSHD46</t>
   </si>
   <si>
+    <t>Medical Research Council (MRC) National Survey of Health and Development (NSHD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Medical Research Council (MRC) National Survey of Health and Development (NSHD) is the oldest and longest running of the British birth cohort studies. Also known as the 1946 British birth cohort study, the aims have changed over time. During childhood, the main aim was to investigate how the environment at home and at school affected physical and mental development and educational attainment. During adulthood, the main aim was to investigate how childhood health and development and lifetime social circumstances affected adult health and function. NSHD is now a life course study of ageing.
+</t>
+  </si>
+  <si>
+    <t>[nshd.mrc.ac.uk](https://nshd.mrc.ac.uk/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covid-19 data collection, Biomarkers, Cognitive measures, Diet and nutrition, Education, Ethnicity and race, Socioeconomic status and deprivation, Physical health assessment, Victimisation and life events, Work and employment, Parenting and family, Sleep problems
+</t>
+  </si>
+  <si>
+    <t>UCL</t>
+  </si>
+  <si>
     <t>TRACKC19</t>
   </si>
   <si>
+    <t>TRACK-COVID Study</t>
+  </si>
+  <si>
+    <t>The aims of the TRACK-COVID study are to determine the risk factors for infection of SARS-CoV-2 and to understand why only some people have COVID-19 symptoms. Participants were recruited from the INTERVAL, COMPARE and STRIDES studies that are part of the National Institute for Health and Care Research (NIHR) Blood Donors Studies BioResource.</t>
+  </si>
+  <si>
+    <t>[www.donorhealth-btru.nihr.ac.uk](https://www.donorhealth-btru.nihr.ac.uk/studies/track-covid-study/)</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection, Biomarkers</t>
+  </si>
+  <si>
     <t>UKREACH</t>
   </si>
   <si>
+    <t>United Kingdom Research study into Ethnicity And COVID-19 outcomes in Healthcare workers (UK REACH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The United Kingdom Research study into Ethnicity And COVID-19 outcomes in Healthcare workers (UK-REACH) aims to understand if, how, and why, ethnicity affects COVID-19 clinical outcomes in healthcare workers (HCWs). UK-REACH is also investigating the impact of COVID-19 on the physical and mental health of HCWs, with a focus on those from an ethnic minority background. </t>
+  </si>
+  <si>
+    <t>[uk-reach.org](https://uk-reach.org/main/)</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection, Biomarkers, Diet and nutrition, Ethnicity and race, Loneliness and social isolation, Digital technology and social media, Victimisation and life events, Work and employment</t>
+  </si>
+  <si>
+    <t>[police-health.org.uk](https://police-health.org.uk/)</t>
+  </si>
+  <si>
+    <t>Imperial College London</t>
+  </si>
+  <si>
+    <t>[bristol.ac.uk](http://www.bristol.ac.uk/alspac/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bristol </t>
+  </si>
+  <si>
+    <t>1991-92</t>
+  </si>
+  <si>
+    <t>BCS70</t>
+  </si>
+  <si>
+    <t>[cls.ucl.ac.uk](https://cls.ucl.ac.uk/cls-studies/1970-british-cohort-study/)</t>
+  </si>
+  <si>
+    <t>BIB</t>
+  </si>
+  <si>
+    <t>[borninbradford.nhs.uk](https://borninbradford.nhs.uk)</t>
+  </si>
+  <si>
+    <t>Bradford Teaching Hospitals NHS Foundation Trust</t>
+  </si>
+  <si>
+    <t>2007-10</t>
+  </si>
+  <si>
+    <t>[elsa-project.ac.uk](https://www.elsa-project.ac.uk)</t>
+  </si>
+  <si>
+    <t>GENSCOT</t>
+  </si>
+  <si>
+    <t>[ed.ac.uk](https://www.ed.ac.uk/generation-scotland)</t>
+  </si>
+  <si>
+    <t>University of Edinburgh</t>
+  </si>
+  <si>
+    <t>NEXTSTEP</t>
+  </si>
+  <si>
+    <t>[cls.ucl.ac.uk](https://cls.ucl.ac.uk/cls-studies/next-steps/)</t>
+  </si>
+  <si>
+    <t>1989-90</t>
+  </si>
+  <si>
+    <t>[cls.ucl.ac.uk](cls.ucl.ac.uk/cls-studies/millennium-cohort-study)</t>
+  </si>
+  <si>
+    <t>NCDS58</t>
+  </si>
+  <si>
+    <t>[cls.ucl.ac.uk](https://cls.ucl.ac.uk/cls-studies/1958-national-child-development-study)</t>
+  </si>
+  <si>
+    <t>[qub.ac.uk](https://www.qub.ac.uk/sites/NICOLA/)</t>
+  </si>
+  <si>
+    <t>Queen's University Belfast</t>
+  </si>
+  <si>
+    <t>[mrc.ukri.org](https://mrc.ukri.org/research/facilities-and-resources-for-researchers/cohort-directory/southall-and-brent-revisited-sabre/)</t>
+  </si>
+  <si>
+    <t>1919-50</t>
+  </si>
+  <si>
+    <t>[teds.ac.uk](https://www.teds.ac.uk/)</t>
+  </si>
+  <si>
+    <t>1994-96</t>
+  </si>
+  <si>
+    <t>[understandingsociety.ac.uk](https://www.understandingsociety.ac.uk/)</t>
+  </si>
+  <si>
+    <t>University of Essex</t>
+  </si>
+  <si>
+    <t>TWINSUK</t>
+  </si>
+  <si>
     <t>TwinsUK - The UK Adult Twin Registry</t>
   </si>
   <si>
     <t>TwinsUK is the UKâ€™s largest and the worldâ€™s most clinically detailed adult twin registry, aiming to investigate the genetic and environmental basis of a range of complex diseases and conditions. The study was set up in 1992 to investigate the incidence of osteoporosis and other diseases in several hundred monozygotic (identical) twins, and since then has expanded to include over 15,000 identical and non-identical twins from across the UK, with ages between 18 and 100. TwinsUK recently obtained approval to recruit twin children of all ages, and so shortly will be able to study health and disease throughout the entire life course.</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href="https://twinsuk.ac.uk/"&gt;twinsuk.ac.uk&lt;/a&gt;</t>
+    <t>[twinsuk.ac.uk](https://twinsuk.ac.uk/)</t>
   </si>
   <si>
     <t>Covid-19 data collection,
@@ -831,211 +1022,71 @@
 Currently, twins may register at 16 but may only take part in the research programme at 18. TwinsUK recently obtained approval to recruit under-18s to the research programme, so twins of any age will be able to join shortly. </t>
   </si>
   <si>
-    <t>Covid-19 data collection, Education, Ethnicity and race, Sexuality and gender identity, Socioeconomic status and deprivation, Loneliness and social isolation, Victimisation and life events, Work and employment, Parenting and family, Sleep problems</t>
-  </si>
-  <si>
-    <t>https://nshd.mrc.ac.uk/</t>
-  </si>
-  <si>
-    <t>UCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Medical Research Council (MRC) National Survey of Health and Development (NSHD) is the oldest and longest running of the British birth cohort studies. Also known as the 1946 British birth cohort study, the aims have changed over time. During childhood, the main aim was to investigate how the environment at home and at school affected physical and mental development and educational attainment. During adulthood, the main aim was to investigate how childhood health and development and lifetime social circumstances affected adult health and function. NSHD is now a life course study of ageing.
+    <t>nhsd</t>
+  </si>
+  <si>
+    <t>NHS England</t>
+  </si>
+  <si>
+    <t>NHS England supports NHS staff at work, helps people get the best care, and uses the nation's health data to drive research and transform services.</t>
+  </si>
+  <si>
+    <t>[Home - NHS England Digital](https://digital.nhs.uk/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covid-19 data collection,
+Primary care,
+Secondary care,
+Maternity,
+Mental health,
+Community,
+Registration,
+Cancer,
+Deaths,
+Demographics,
+Medicines
 </t>
   </si>
   <si>
-    <t>Medical Research Council (MRC) National Survey of Health and Development (NSHD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covid-19 data collection, Biomarkers, Cognitive measures, Diet and nutrition, Education, Ethnicity and race, Socioeconomic status and deprivation, Physical health assessment, Victimisation and life events, Work and employment, Parenting and family, Sleep problems
+    <t>NHS England, Office for National Statistics and Department of Health and Social Care</t>
+  </si>
+  <si>
+    <t>Linked health data</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Linked</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>Geographic/environmental/?</t>
+  </si>
+  <si>
+    <t>UK LLC has commissioned the University of Leicester and St George's, University of London to model a number of geo-environmental exposure estimates. These are based on taking existing environmental sensor readings and with other model inputs (e.g. traffic count data, weather pattern data) used to model pollution and other environmental exposures and to map these to participants’ addresses (where LPS/participant preferences permit). UK LLC also collates and processes public domain datasets relating to address data for inclusion in the UK LLC TRE.</t>
+  </si>
+  <si>
+    <t>[ukllc-book.netlify.app](https://ukllc-book.netlify.app/docs/linked_geo_data/linkage_and_processing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air pollution, Noise pollution, Greenness, Greenspace,  Built Environment
 </t>
   </si>
   <si>
-    <t>https://www.donorhealth-btru.nihr.ac.uk/studies/track-covid-study/</t>
-  </si>
-  <si>
-    <t>TRACK-COVID Study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The National Institute for Health and Care Research (NIHR) Mental Health BioResource COVID-19 Psychiatry and Neurological Genetics (COPING) study aims to assess the impact of the COVID-19 pandemic on mental and neurological health. </t>
-  </si>
-  <si>
-    <t>The aims of the TRACK-COVID study are to determine the risk factors for infection of SARS-CoV-2 and to understand why only some people have COVID-19 symptoms. Participants were recruited from the INTERVAL, COMPARE and STRIDES studies that are part of the National Institute for Health and Care Research (NIHR) Blood Donors Studies BioResource.</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection, Biomarkers</t>
-  </si>
-  <si>
-    <t>https://uk-reach.org/main/</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection, Biomarkers, Diet and nutrition, Ethnicity and race, Loneliness and social isolation, Digital technology and social media, Victimisation and life events, Work and employment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The United Kingdom Research study into Ethnicity And COVID-19 outcomes in Healthcare workers (UK-REACH) aims to understand if, how, and why, ethnicity affects COVID-19 clinical outcomes in healthcare workers (HCWs). UK-REACH is also investigating the impact of COVID-19 on the physical and mental health of HCWs, with a focus on those from an ethnic minority background. </t>
-  </si>
-  <si>
-    <t>European Prospective Investigation into Cancer and Nutrition - Norfolk (EPIC-N)</t>
-  </si>
-  <si>
-    <t>Extended Cohort for E-health, Environment and DNA (EXCEED)</t>
-  </si>
-  <si>
-    <t>Genetic Links to Anxiety and Depression (GLAD) Study</t>
-  </si>
-  <si>
-    <t>National Institute for Health and Care Research (NIHR) Mental Health BioResource COVID-19 Psychiatry and Neurological Genetics (COPING) Study</t>
-  </si>
-  <si>
-    <t>United Kingdom Research study into Ethnicity And COVID-19 outcomes in Healthcare workers (UK REACH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Extended Cohort for E-health, Environment and DNA (EXCEED) study collects information from people about genes and lifestyle to provide insight into environmental influences on a broad range of diseases and long-term health. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Fenland Study investigates the interaction between environmental and genetic factors in determining obesity, type 2 diabetes and related metabolic disorders. </t>
-  </si>
-  <si>
-    <t>The Genetic Links to Anxiety and Depression (GLAD) study is part of the National Institute for Health and Care Research (NIHR) Mental Health BioResource. GLAD explores genetic risk factors for depression and/or anxiety. The GLAD study aims to better understand depression and anxiety in order to find effective treatments and improve the lives of people experiencing these disorders.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Bristol </t>
-  </si>
-  <si>
-    <t>University of Essex</t>
-  </si>
-  <si>
-    <t>Imperial College London</t>
-  </si>
-  <si>
-    <t>Bradford Teaching Hospitals NHS Foundation Trust</t>
-  </si>
-  <si>
-    <t>Queen's University Belfast</t>
-  </si>
-  <si>
-    <t>University of Edinburgh</t>
-  </si>
-  <si>
-    <t>Cambridge University Hospitals NHS Foundation Trust</t>
-  </si>
-  <si>
-    <t>Leicestershire &amp; Rutland</t>
-  </si>
-  <si>
-    <t>1991-92</t>
-  </si>
-  <si>
-    <t>2007-10</t>
-  </si>
-  <si>
-    <t>1989-90</t>
-  </si>
-  <si>
-    <t>1919-50</t>
-  </si>
-  <si>
-    <t>1994-96</t>
-  </si>
-  <si>
-    <t>18+ years</t>
-  </si>
-  <si>
-    <t>16+ years</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Study type</t>
-  </si>
-  <si>
-    <t>Year of birth</t>
-  </si>
-  <si>
-    <t>BIB</t>
-  </si>
-  <si>
-    <t>GENSCOT</t>
-  </si>
-  <si>
-    <t>NEXTSTEP</t>
-  </si>
-  <si>
-    <t>NCDS58</t>
-  </si>
-  <si>
-    <t>TWINSUK</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>BCS70</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>LPS</t>
-  </si>
-  <si>
-    <t>nhsd</t>
-  </si>
-  <si>
-    <t>Source name</t>
-  </si>
-  <si>
-    <t>NHS Digital</t>
-  </si>
-  <si>
-    <t>Placeholder for NHSD Aims</t>
-  </si>
-  <si>
-    <t>Home - NHS England Digital</t>
-  </si>
-  <si>
-    <t>Placeholder for NHSD themes</t>
-  </si>
-  <si>
-    <t>NHS</t>
-  </si>
-  <si>
-    <t>Linked</t>
-  </si>
-  <si>
-    <t>Consent?</t>
-  </si>
-  <si>
-    <t>varied</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>GEO</t>
-  </si>
-  <si>
-    <t>Geographic/environmental/?</t>
-  </si>
-  <si>
-    <t>Placeholder for GEO Aims</t>
-  </si>
-  <si>
-    <t>Placeholder for GEO themes</t>
-  </si>
-  <si>
-    <t>University of Leicester?</t>
+    <t>University of Leicester and St George's, University of London</t>
+  </si>
+  <si>
+    <t>Linked geo data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1182,6 +1233,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1532,18 +1596,37 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1601,10 +1684,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1910,9 +1989,9 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1953,7 +2032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="409.5">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1997,7 +2076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="409.5">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2041,7 +2120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="409.5">
       <c r="A4">
         <v>7</v>
       </c>
@@ -2085,7 +2164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="409.5">
       <c r="A5">
         <v>8</v>
       </c>
@@ -2129,7 +2208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="409.5">
       <c r="A6">
         <v>16</v>
       </c>
@@ -2173,7 +2252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="409.5">
       <c r="A7">
         <v>22</v>
       </c>
@@ -2217,7 +2296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="409.5">
       <c r="A8">
         <v>32</v>
       </c>
@@ -2261,7 +2340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="409.5">
       <c r="A9">
         <v>33</v>
       </c>
@@ -2305,7 +2384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="409.5">
       <c r="A10">
         <v>37</v>
       </c>
@@ -2349,7 +2428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="409.5">
       <c r="A11">
         <v>38</v>
       </c>
@@ -2393,7 +2472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="409.5">
       <c r="A12">
         <v>43</v>
       </c>
@@ -2437,7 +2516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="409.5">
       <c r="A13">
         <v>47</v>
       </c>
@@ -2481,7 +2560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="409.5">
       <c r="A14">
         <v>49</v>
       </c>
@@ -2534,111 +2613,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.53515625" customWidth="1"/>
-    <col min="2" max="2" width="17.23046875" customWidth="1"/>
-    <col min="3" max="3" width="31.69140625" customWidth="1"/>
-    <col min="4" max="4" width="31.84375" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="14.4609375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="31.69140625" customWidth="1"/>
-    <col min="8" max="8" width="19.4609375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="26.4609375" customWidth="1"/>
-    <col min="10" max="10" width="29.53515625" customWidth="1"/>
-    <col min="11" max="11" width="18.4609375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="13.15234375" customWidth="1"/>
-    <col min="13" max="13" width="27.15234375" customWidth="1"/>
-    <col min="14" max="14" width="18.15234375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="29.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="15">
+      <c r="A1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>215</v>
+      <c r="O1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G2" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>137</v>
+      <c r="H2" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="L2">
         <v>1993</v>
@@ -2647,47 +2726,47 @@
         <v>30000</v>
       </c>
       <c r="N2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="G3" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>145</v>
+      <c r="H3" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>197</v>
-      </c>
-      <c r="K3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>129</v>
       </c>
       <c r="L3">
@@ -2697,48 +2776,48 @@
         <v>11000</v>
       </c>
       <c r="N3" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>148</v>
+        <v>160</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>136</v>
+        <v>162</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G4" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>145</v>
+      <c r="H4" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="I4" t="s">
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>151</v>
+        <v>163</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="L4">
         <v>2005</v>
@@ -2747,39 +2826,39 @@
         <v>12435</v>
       </c>
       <c r="N4" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="O4" t="s">
         <v>23</v>
       </c>
       <c r="P4" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="15">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>153</v>
+        <v>167</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>155</v>
+        <v>169</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="G5" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>145</v>
+      <c r="H5" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="I5" t="s">
         <v>84</v>
@@ -2787,7 +2866,7 @@
       <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>129</v>
       </c>
       <c r="L5">
@@ -2797,39 +2876,39 @@
         <v>40000</v>
       </c>
       <c r="N5" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="O5" t="s">
         <v>23</v>
       </c>
       <c r="P5" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="15">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>196</v>
+      <c r="F6" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="G6" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>145</v>
+      <c r="H6" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="I6" t="s">
         <v>84</v>
@@ -2837,7 +2916,7 @@
       <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>129</v>
       </c>
       <c r="L6">
@@ -2847,39 +2926,39 @@
         <v>150000</v>
       </c>
       <c r="N6" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="O6" t="s">
         <v>23</v>
       </c>
       <c r="P6" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="15">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>169</v>
+        <v>180</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>170</v>
+        <v>182</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>137</v>
+      <c r="H7" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -2887,7 +2966,7 @@
       <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>1946</v>
       </c>
       <c r="L7">
@@ -2903,33 +2982,33 @@
         <v>23</v>
       </c>
       <c r="P7" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="15">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>174</v>
+        <v>186</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>136</v>
+        <v>188</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G8" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>145</v>
+      <c r="H8" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="I8" t="s">
         <v>30</v>
@@ -2937,7 +3016,7 @@
       <c r="J8" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>129</v>
       </c>
       <c r="L8">
@@ -2947,39 +3026,39 @@
         <v>20000</v>
       </c>
       <c r="N8" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="O8" t="s">
         <v>23</v>
       </c>
       <c r="P8" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="15">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>179</v>
+        <v>191</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>144</v>
+        <v>193</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>145</v>
+      <c r="H9" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="I9" t="s">
         <v>84</v>
@@ -2987,7 +3066,7 @@
       <c r="J9" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>129</v>
       </c>
       <c r="L9">
@@ -2997,16 +3076,16 @@
         <v>18000</v>
       </c>
       <c r="N9" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="O9" t="s">
         <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3016,20 +3095,20 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
+      <c r="D10" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>192</v>
+      <c r="F10" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>145</v>
+      <c r="H10" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -3037,7 +3116,7 @@
       <c r="J10" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>129</v>
       </c>
       <c r="L10">
@@ -3053,10 +3132,10 @@
         <v>23</v>
       </c>
       <c r="P10" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="76.5">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -3066,20 +3145,20 @@
       <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>27</v>
+      <c r="D11" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>190</v>
+      <c r="F11" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="G11" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>137</v>
+      <c r="H11" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="I11" t="s">
         <v>30</v>
@@ -3087,7 +3166,7 @@
       <c r="J11" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="5" t="s">
         <v>198</v>
       </c>
       <c r="L11">
@@ -3103,12 +3182,12 @@
         <v>23</v>
       </c>
       <c r="P11" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="15">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -3116,20 +3195,20 @@
       <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
-        <v>38</v>
+      <c r="D12" s="15" t="s">
+        <v>200</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>170</v>
+      <c r="F12" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="G12" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>145</v>
+      <c r="H12" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
@@ -3137,7 +3216,7 @@
       <c r="J12" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>1970</v>
       </c>
       <c r="L12">
@@ -3153,12 +3232,12 @@
         <v>23</v>
       </c>
       <c r="P12" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15">
       <c r="A13" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
         <v>44</v>
@@ -3166,20 +3245,20 @@
       <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="s">
-        <v>46</v>
+      <c r="D13" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>193</v>
+      <c r="F13" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="G13" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>145</v>
+      <c r="H13" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="I13" t="s">
         <v>30</v>
@@ -3187,8 +3266,8 @@
       <c r="J13" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>199</v>
+      <c r="K13" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="L13">
         <v>2007</v>
@@ -3203,10 +3282,10 @@
         <v>23</v>
       </c>
       <c r="P13" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="15">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -3216,20 +3295,20 @@
       <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="s">
-        <v>55</v>
+      <c r="D14" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="E14" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>170</v>
+      <c r="F14" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="G14" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>145</v>
+      <c r="H14" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="I14" t="s">
         <v>30</v>
@@ -3237,7 +3316,7 @@
       <c r="J14" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="5" t="s">
         <v>129</v>
       </c>
       <c r="L14">
@@ -3253,12 +3332,12 @@
         <v>23</v>
       </c>
       <c r="P14" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="15">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -3266,20 +3345,20 @@
       <c r="C15" t="s">
         <v>63</v>
       </c>
-      <c r="D15" t="s">
-        <v>64</v>
+      <c r="D15" s="15" t="s">
+        <v>207</v>
       </c>
       <c r="E15" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>195</v>
+      <c r="F15" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="G15" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>145</v>
+      <c r="H15" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="I15" t="s">
         <v>67</v>
@@ -3287,7 +3366,7 @@
       <c r="J15" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>129</v>
       </c>
       <c r="L15" t="s">
@@ -3296,19 +3375,19 @@
       <c r="M15" t="s">
         <v>70</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="5" t="s">
         <v>71</v>
       </c>
       <c r="O15" t="s">
         <v>23</v>
       </c>
       <c r="P15" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="15">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -3316,20 +3395,20 @@
       <c r="C16" t="s">
         <v>74</v>
       </c>
-      <c r="D16" t="s">
-        <v>75</v>
+      <c r="D16" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="E16" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>170</v>
+      <c r="F16" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="G16" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>145</v>
+      <c r="H16" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="I16" t="s">
         <v>30</v>
@@ -3337,8 +3416,8 @@
       <c r="J16" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>200</v>
+      <c r="K16" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="L16">
         <v>2004</v>
@@ -3353,10 +3432,10 @@
         <v>23</v>
       </c>
       <c r="P16" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" ht="15">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -3366,20 +3445,20 @@
       <c r="C17" t="s">
         <v>81</v>
       </c>
-      <c r="D17" t="s">
-        <v>82</v>
+      <c r="D17" s="15" t="s">
+        <v>212</v>
       </c>
       <c r="E17" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>170</v>
+      <c r="F17" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="G17" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>145</v>
+      <c r="H17" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="I17" t="s">
         <v>84</v>
@@ -3387,7 +3466,7 @@
       <c r="J17" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>2000</v>
       </c>
       <c r="L17">
@@ -3403,12 +3482,12 @@
         <v>23</v>
       </c>
       <c r="P17" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" ht="15">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s">
         <v>88</v>
@@ -3416,20 +3495,20 @@
       <c r="C18" t="s">
         <v>89</v>
       </c>
-      <c r="D18" t="s">
-        <v>90</v>
+      <c r="D18" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>170</v>
+      <c r="F18" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="G18" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>145</v>
+      <c r="H18" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
@@ -3437,7 +3516,7 @@
       <c r="J18" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>1958</v>
       </c>
       <c r="L18">
@@ -3453,10 +3532,10 @@
         <v>23</v>
       </c>
       <c r="P18" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" ht="15">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -3466,20 +3545,20 @@
       <c r="C19" t="s">
         <v>96</v>
       </c>
-      <c r="D19" t="s">
-        <v>97</v>
+      <c r="D19" s="15" t="s">
+        <v>215</v>
       </c>
       <c r="E19" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>194</v>
+      <c r="F19" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="G19" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>145</v>
+      <c r="H19" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="I19" t="s">
         <v>100</v>
@@ -3487,7 +3566,7 @@
       <c r="J19" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="5" t="s">
         <v>129</v>
       </c>
       <c r="L19">
@@ -3503,10 +3582,10 @@
         <v>23</v>
       </c>
       <c r="P19" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" ht="15">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -3516,20 +3595,20 @@
       <c r="C20" t="s">
         <v>105</v>
       </c>
-      <c r="D20" t="s">
-        <v>106</v>
+      <c r="D20" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="E20" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>170</v>
+      <c r="F20" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="G20" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>145</v>
+      <c r="H20" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="I20" t="s">
         <v>30</v>
@@ -3537,8 +3616,8 @@
       <c r="J20" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>201</v>
+      <c r="K20" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="L20">
         <v>1988</v>
@@ -3553,10 +3632,10 @@
         <v>23</v>
       </c>
       <c r="P20" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" ht="15">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -3566,20 +3645,20 @@
       <c r="C21" t="s">
         <v>113</v>
       </c>
-      <c r="D21" t="s">
-        <v>114</v>
+      <c r="D21" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="E21" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>155</v>
+      <c r="F21" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="G21" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>137</v>
+      <c r="H21" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="I21" t="s">
         <v>117</v>
@@ -3587,8 +3666,8 @@
       <c r="J21" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>202</v>
+      <c r="K21" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="L21">
         <v>1994</v>
@@ -3603,10 +3682,10 @@
         <v>23</v>
       </c>
       <c r="P21" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" ht="15">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -3616,20 +3695,20 @@
       <c r="C22" t="s">
         <v>122</v>
       </c>
-      <c r="D22" t="s">
-        <v>123</v>
+      <c r="D22" s="15" t="s">
+        <v>221</v>
       </c>
       <c r="E22" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>191</v>
+      <c r="F22" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="G22" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>145</v>
+      <c r="H22" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="I22" t="s">
         <v>84</v>
@@ -3637,11 +3716,11 @@
       <c r="J22" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>127</v>
+      <c r="L22" s="1">
+        <v>2009</v>
       </c>
       <c r="M22" t="s">
         <v>128</v>
@@ -3653,176 +3732,197 @@
         <v>23</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>163</v>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F23" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L23" s="6">
+        <v>1992</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="160.5" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L24" s="10">
+        <v>1998</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="8" customFormat="1" ht="282" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I23" s="7" t="s">
+      <c r="I25" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K25" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="L23" s="7">
-        <v>1992</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="L25" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="O25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P23" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>217</v>
-      </c>
-      <c r="B24" t="s">
-        <v>219</v>
-      </c>
-      <c r="C24" t="s">
-        <v>220</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E24" t="s">
-        <v>222</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G24" t="s">
-        <v>224</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="I24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" t="s">
-        <v>231</v>
-      </c>
-      <c r="D25" t="s">
-        <v>227</v>
-      </c>
-      <c r="E25" t="s">
-        <v>232</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="G25" t="s">
-        <v>224</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="I25" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>224</v>
+      <c r="P25" s="10" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{71A28AE9-574C-4ABB-B951-E0F7F4AC0ED6}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{1B2CAC6C-3CDE-4CEB-A705-C3DA703EA9D6}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{AE0AAC68-B2D2-4FEF-B2D5-3D6D83B4C83A}"/>
-    <hyperlink ref="D24" r:id="rId9" display="https://digital.nhs.uk/" xr:uid="{92CC56BB-A702-4707-BD1C-C3F2395D08B7}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{3ED0AB19-1A5C-4AAF-A925-AC5FBE19BA22}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{A95EF5AD-C4C8-482B-9EC4-09BA441E9197}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{E135BB25-94CD-4976-9167-E504AD066F67}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{4EC2A576-2B6F-4384-B389-0B235E848491}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{CC324A69-1EC1-4A02-B555-EC503082C173}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{831DC8B9-2B35-44C2-B56B-662A69AAA8C8}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{C3ABF039-22E0-4514-BAC8-84980A241819}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{F45C508E-0066-424D-A5BB-BE3517DF4BA0}"/>
+    <hyperlink ref="D24" r:id="rId9" xr:uid="{C45AE2BC-2154-48C8-9BCB-A4CA2EA6CE29}"/>
+    <hyperlink ref="D25" r:id="rId10" xr:uid="{DD271F47-C994-488E-A2BA-E24D8503A5EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cdd28b36-9559-4f02-b334-18686e08c090">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100362CCE852358CD488E8AC7D76A88A7B9" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0a969f11f333e55a635863768f56c1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cdd28b36-9559-4f02-b334-18686e08c090" xmlns:ns3="96b41f5b-68c8-47b0-939c-7829c37ecb01" xmlns:ns4="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8b960cfa97ac6e5019242c462d73d63" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cdd28b36-9559-4f02-b334-18686e08c090"/>
@@ -4082,68 +4182,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cdd28b36-9559-4f02-b334-18686e08c090">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9154D1-3B7D-4F8C-A641-01D021E6A9E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cdd28b36-9559-4f02-b334-18686e08c090"/>
-    <ds:schemaRef ds:uri="96b41f5b-68c8-47b0-939c-7829c37ecb01"/>
-    <ds:schemaRef ds:uri="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45797889-F5A0-4AF5-A147-F88B0C0918CA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEC23EF3-29A0-4EB4-BA76-DBAF1AD18AE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="96b41f5b-68c8-47b0-939c-7829c37ecb01"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cdd28b36-9559-4f02-b334-18686e08c090"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEC23EF3-29A0-4EB4-BA76-DBAF1AD18AE9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45797889-F5A0-4AF5-A147-F88B0C0918CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9154D1-3B7D-4F8C-A641-01D021E6A9E4}"/>
 </file>
--- a/all_sources_in.xlsx
+++ b/all_sources_in.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob.sharepoint.com/teams/grp-AndyRobinJazz/Shared Documents/Data Access/Data Team/Data Documentation/EXPLORE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/bq21582_bristol_ac_uk/Documents/Programs/web app/web-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE6D10B-1DD5-4410-AE42-B7FB7314988F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0EABCF28-72DE-4B37-8947-9B96195E9358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FC4EEB7-4DFE-4A34-BE92-7EF12247388B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mental_health_catalogue" sheetId="1" r:id="rId1"/>
@@ -1086,7 +1086,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1989,9 +1989,9 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="409.5">
+    <row r="2" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="409.5">
+    <row r="3" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="409.5">
+    <row r="4" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>7</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="409.5">
+    <row r="5" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>8</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="409.5">
+    <row r="6" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>16</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="409.5">
+    <row r="7" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>22</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="409.5">
+    <row r="8" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>32</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="409.5">
+    <row r="9" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>33</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="409.5">
+    <row r="10" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>37</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="409.5">
+    <row r="11" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>38</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="409.5">
+    <row r="12" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>43</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="409.5">
+    <row r="13" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>47</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="409.5">
+    <row r="14" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>49</v>
       </c>
@@ -2613,29 +2613,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="29.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="31.7265625" customWidth="1"/>
+    <col min="4" max="4" width="31.81640625" customWidth="1"/>
+    <col min="5" max="5" width="255.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="31.7265625" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="10" max="10" width="29.54296875" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" customWidth="1"/>
+    <col min="13" max="13" width="27.1796875" customWidth="1"/>
+    <col min="14" max="14" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="15">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>172</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15">
+    <row r="7" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -2948,7 +2948,7 @@
       <c r="D7" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>182</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -2985,7 +2985,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>189</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="76.5">
+    <row r="11" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>206</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>223</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="8" customFormat="1" ht="160.5" customHeight="1">
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>231</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="8" customFormat="1" ht="282" customHeight="1">
+    <row r="25" spans="1:16" s="8" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>240</v>
       </c>
@@ -3903,26 +3903,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cdd28b36-9559-4f02-b334-18686e08c090">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100362CCE852358CD488E8AC7D76A88A7B9" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0a969f11f333e55a635863768f56c1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cdd28b36-9559-4f02-b334-18686e08c090" xmlns:ns3="96b41f5b-68c8-47b0-939c-7829c37ecb01" xmlns:ns4="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8b960cfa97ac6e5019242c462d73d63" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cdd28b36-9559-4f02-b334-18686e08c090"/>
@@ -4182,14 +4162,61 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cdd28b36-9559-4f02-b334-18686e08c090">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45797889-F5A0-4AF5-A147-F88B0C0918CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9154D1-3B7D-4F8C-A641-01D021E6A9E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cdd28b36-9559-4f02-b334-18686e08c090"/>
+    <ds:schemaRef ds:uri="96b41f5b-68c8-47b0-939c-7829c37ecb01"/>
+    <ds:schemaRef ds:uri="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEC23EF3-29A0-4EB4-BA76-DBAF1AD18AE9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEC23EF3-29A0-4EB4-BA76-DBAF1AD18AE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cdd28b36-9559-4f02-b334-18686e08c090"/>
+    <ds:schemaRef ds:uri="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9154D1-3B7D-4F8C-A641-01D021E6A9E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45797889-F5A0-4AF5-A147-F88B0C0918CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/all_sources_in.xlsx
+++ b/all_sources_in.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/bq21582_bristol_ac_uk/Documents/Programs/web app/web-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{0EABCF28-72DE-4B37-8947-9B96195E9358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FC4EEB7-4DFE-4A34-BE92-7EF12247388B}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{0EABCF28-72DE-4B37-8947-9B96195E9358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4985C592-5FD0-4250-9E4D-6C0832EF71BF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="86280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mental_health_catalogue" sheetId="1" r:id="rId1"/>
@@ -1686,10 +1686,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1727,7 +1731,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1833,7 +1837,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1975,7 +1979,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1989,9 +1993,9 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2032,7 +2036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2076,7 +2080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2120,7 +2124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>7</v>
       </c>
@@ -2164,7 +2168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>8</v>
       </c>
@@ -2208,7 +2212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>16</v>
       </c>
@@ -2252,7 +2256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>22</v>
       </c>
@@ -2296,7 +2300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>32</v>
       </c>
@@ -2340,7 +2344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>33</v>
       </c>
@@ -2384,7 +2388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>37</v>
       </c>
@@ -2428,7 +2432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>38</v>
       </c>
@@ -2472,7 +2476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>43</v>
       </c>
@@ -2516,7 +2520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>47</v>
       </c>
@@ -2560,7 +2564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>49</v>
       </c>
@@ -2613,29 +2617,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="3" max="3" width="31.7265625" customWidth="1"/>
-    <col min="4" max="4" width="31.81640625" customWidth="1"/>
-    <col min="5" max="5" width="255.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="31.7265625" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
-    <col min="10" max="10" width="29.54296875" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" customWidth="1"/>
-    <col min="13" max="13" width="27.1796875" customWidth="1"/>
-    <col min="14" max="14" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.53515625" customWidth="1"/>
+    <col min="2" max="2" width="17.23046875" customWidth="1"/>
+    <col min="3" max="3" width="31.69140625" customWidth="1"/>
+    <col min="4" max="4" width="31.84375" customWidth="1"/>
+    <col min="5" max="5" width="255.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.4609375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="31.69140625" customWidth="1"/>
+    <col min="8" max="8" width="19.4609375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.4609375" customWidth="1"/>
+    <col min="10" max="10" width="29.53515625" customWidth="1"/>
+    <col min="11" max="11" width="18.4609375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.15234375" customWidth="1"/>
+    <col min="13" max="13" width="27.15234375" customWidth="1"/>
+    <col min="14" max="14" width="18.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
@@ -2685,7 +2689,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -2735,7 +2739,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -2785,7 +2789,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -2835,7 +2839,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -2885,7 +2889,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>172</v>
       </c>
@@ -2935,14 +2939,14 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="276.89999999999998" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>178</v>
       </c>
       <c r="B7" t="s">
         <v>179</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -2985,7 +2989,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -3035,7 +3039,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>189</v>
       </c>
@@ -3085,7 +3089,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3135,14 +3139,14 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="378.9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -3185,7 +3189,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -3235,7 +3239,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -3285,7 +3289,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -3335,7 +3339,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>206</v>
       </c>
@@ -3385,7 +3389,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -3435,7 +3439,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -3485,7 +3489,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -3535,7 +3539,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -3585,7 +3589,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -3635,7 +3639,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -3685,7 +3689,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -3735,7 +3739,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>223</v>
       </c>
@@ -3785,7 +3789,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="8" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
         <v>231</v>
       </c>
@@ -3835,7 +3839,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="8" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="8" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
         <v>240</v>
       </c>
@@ -3903,6 +3907,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cdd28b36-9559-4f02-b334-18686e08c090">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100362CCE852358CD488E8AC7D76A88A7B9" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0a969f11f333e55a635863768f56c1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cdd28b36-9559-4f02-b334-18686e08c090" xmlns:ns3="96b41f5b-68c8-47b0-939c-7829c37ecb01" xmlns:ns4="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8b960cfa97ac6e5019242c462d73d63" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cdd28b36-9559-4f02-b334-18686e08c090"/>
@@ -4162,27 +4186,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cdd28b36-9559-4f02-b334-18686e08c090">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45797889-F5A0-4AF5-A147-F88B0C0918CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEC23EF3-29A0-4EB4-BA76-DBAF1AD18AE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cdd28b36-9559-4f02-b334-18686e08c090"/>
+    <ds:schemaRef ds:uri="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9154D1-3B7D-4F8C-A641-01D021E6A9E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4200,23 +4223,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEC23EF3-29A0-4EB4-BA76-DBAF1AD18AE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cdd28b36-9559-4f02-b334-18686e08c090"/>
-    <ds:schemaRef ds:uri="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45797889-F5A0-4AF5-A147-F88B0C0918CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/all_sources_in.xlsx
+++ b/all_sources_in.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/bq21582_bristol_ac_uk/Documents/Programs/web app/web-app/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_684983EFF8834D2A152C4C40952E2BBD78782E85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CE96E23-577D-4821-8786-9333150ED013}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="86280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="211">
   <si>
     <t>source</t>
   </si>
@@ -100,9 +106,6 @@
     <t>BIB</t>
   </si>
   <si>
-    <t>CORE</t>
-  </si>
-  <si>
     <t>ELSA</t>
   </si>
   <si>
@@ -173,9 +176,6 @@
   </si>
   <si>
     <t>Born in Bradford (BiB)</t>
-  </si>
-  <si>
-    <t>todo</t>
   </si>
   <si>
     <t>English Longitudinal Study of Ageing (ELSA)</t>
@@ -667,8 +667,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,13 +731,25 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -775,7 +787,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -809,6 +821,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -843,9 +856,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1018,14 +1032,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="32.765625" customWidth="1"/>
+    <col min="2" max="2" width="23.921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,39 +1095,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" t="s">
         <v>163</v>
       </c>
-      <c r="I2" t="s">
-        <v>165</v>
-      </c>
       <c r="J2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L2">
         <v>1993</v>
@@ -1116,48 +1136,48 @@
         <v>30000</v>
       </c>
       <c r="N2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L3">
         <v>2013</v>
@@ -1166,48 +1186,48 @@
         <v>11000</v>
       </c>
       <c r="N3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L4">
         <v>2005</v>
@@ -1216,48 +1236,48 @@
         <v>12435</v>
       </c>
       <c r="N4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" t="s">
         <v>164</v>
       </c>
-      <c r="I5" t="s">
-        <v>166</v>
-      </c>
       <c r="J5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L5">
         <v>2018</v>
@@ -1266,48 +1286,48 @@
         <v>40000</v>
       </c>
       <c r="N5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" t="s">
         <v>164</v>
       </c>
-      <c r="I6" t="s">
-        <v>166</v>
-      </c>
       <c r="J6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L6">
         <v>2020</v>
@@ -1316,45 +1336,45 @@
         <v>150000</v>
       </c>
       <c r="N6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K7">
         <v>1946</v>
@@ -1366,48 +1386,48 @@
         <v>5362</v>
       </c>
       <c r="N7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L8">
         <v>2020</v>
@@ -1416,48 +1436,48 @@
         <v>20000</v>
       </c>
       <c r="N8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" t="s">
         <v>164</v>
       </c>
-      <c r="I9" t="s">
-        <v>166</v>
-      </c>
       <c r="J9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L9">
         <v>2021</v>
@@ -1466,48 +1486,48 @@
         <v>18000</v>
       </c>
       <c r="N9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L10">
         <v>2004</v>
@@ -1516,95 +1536,95 @@
         <v>53000</v>
       </c>
       <c r="N10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" t="s">
         <v>163</v>
       </c>
-      <c r="I11" t="s">
-        <v>165</v>
-      </c>
       <c r="J11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L11">
         <v>1990</v>
       </c>
       <c r="M11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K12">
         <v>1970</v>
@@ -1613,716 +1633,666 @@
         <v>1970</v>
       </c>
       <c r="M12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L13">
         <v>2007</v>
       </c>
       <c r="M13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" t="s">
-        <v>53</v>
+        <v>177</v>
+      </c>
+      <c r="L14">
+        <v>2002</v>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="N14" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="P14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>179</v>
-      </c>
-      <c r="L15">
-        <v>2002</v>
+        <v>177</v>
+      </c>
+      <c r="L15" t="s">
+        <v>184</v>
       </c>
       <c r="M15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
-        <v>179</v>
-      </c>
-      <c r="L16" t="s">
-        <v>186</v>
-      </c>
-      <c r="M16" t="s">
-        <v>192</v>
+        <v>181</v>
+      </c>
+      <c r="L16">
+        <v>2004</v>
+      </c>
+      <c r="M16">
+        <v>15770</v>
       </c>
       <c r="N16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H17" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" t="s">
         <v>164</v>
       </c>
-      <c r="I17" t="s">
-        <v>165</v>
-      </c>
       <c r="J17" t="s">
-        <v>174</v>
-      </c>
-      <c r="K17" t="s">
-        <v>183</v>
+        <v>172</v>
+      </c>
+      <c r="K17">
+        <v>2000</v>
       </c>
       <c r="L17">
-        <v>2004</v>
-      </c>
-      <c r="M17">
-        <v>15770</v>
+        <v>2000</v>
+      </c>
+      <c r="M17" t="s">
+        <v>191</v>
       </c>
       <c r="N17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="O17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K18">
-        <v>2000</v>
+        <v>1958</v>
       </c>
       <c r="L18">
-        <v>2000</v>
+        <v>1958</v>
       </c>
       <c r="M18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I19" t="s">
         <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
-      </c>
-      <c r="K19">
-        <v>1958</v>
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
       </c>
       <c r="L19">
-        <v>1958</v>
-      </c>
-      <c r="M19" t="s">
-        <v>194</v>
+        <v>2014</v>
+      </c>
+      <c r="M19">
+        <v>8504</v>
       </c>
       <c r="N19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G20" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L20">
-        <v>2014</v>
+        <v>1988</v>
       </c>
       <c r="M20">
-        <v>8504</v>
+        <v>4858</v>
       </c>
       <c r="N20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I21" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L21">
-        <v>1988</v>
-      </c>
-      <c r="M21">
-        <v>4858</v>
+        <v>1994</v>
+      </c>
+      <c r="M21" t="s">
+        <v>193</v>
       </c>
       <c r="N21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I22" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="L22">
-        <v>1994</v>
+        <v>2009</v>
       </c>
       <c r="M22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="O22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H23" t="s">
+        <v>161</v>
+      </c>
+      <c r="I23" t="s">
         <v>164</v>
       </c>
-      <c r="I23" t="s">
-        <v>166</v>
-      </c>
       <c r="J23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L23">
-        <v>2009</v>
+        <v>1992</v>
       </c>
       <c r="M23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N23" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I24" t="s">
         <v>163</v>
       </c>
-      <c r="I24" t="s">
-        <v>166</v>
-      </c>
       <c r="J24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L24">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="M24" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="N24" t="s">
+        <v>207</v>
+      </c>
+      <c r="O24" t="s">
         <v>208</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>210</v>
       </c>
-      <c r="P24" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K25" t="s">
-        <v>179</v>
-      </c>
-      <c r="L25">
-        <v>1998</v>
+        <v>177</v>
+      </c>
+      <c r="L25" t="s">
+        <v>185</v>
       </c>
       <c r="M25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O25" t="s">
+        <v>208</v>
+      </c>
+      <c r="P25" t="s">
         <v>210</v>
-      </c>
-      <c r="P25" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H26" t="s">
-        <v>164</v>
-      </c>
-      <c r="I26" t="s">
-        <v>166</v>
-      </c>
-      <c r="J26" t="s">
-        <v>174</v>
-      </c>
-      <c r="K26" t="s">
-        <v>179</v>
-      </c>
-      <c r="L26" t="s">
-        <v>187</v>
-      </c>
-      <c r="M26" t="s">
-        <v>187</v>
-      </c>
-      <c r="N26" t="s">
-        <v>209</v>
-      </c>
-      <c r="O26" t="s">
-        <v>210</v>
-      </c>
-      <c r="P26" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
